--- a/biology/Médecine/Méthacholine/Méthacholine.xlsx
+++ b/biology/Médecine/Méthacholine/Méthacholine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thacholine</t>
+          <t>Méthacholine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le test à la méthacholine a pour but de savoir si les bronches sont plus irritables que la normale (caractéristique de l’asthme).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thacholine</t>
+          <t>Méthacholine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un test standardisé qui consiste à inhaler de la méthacholine, qui a pour effet d’entraîner un rétrécissement passager du calibre des bronches chez des sujets dont les bronches sont plus irritables. L’examen ne représente pas de danger pour la santé et est réalisé sous supervision médicale.
 Le sujet doit souffler fort dans un appareil nommé spiromètre.
